--- a/data/ROOM-DETAILS.xlsx
+++ b/data/ROOM-DETAILS.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majha\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\regui\PhpstormProjects\ptut-2-tv-connectees\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F2890DD-701E-41A6-AE38-626DF427783F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D2ACB5-ED3F-423E-AFF0-2B74F29DDBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD0740D1-41BD-45CC-8123-A9CF56102F4E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD0740D1-41BD-45CC-8123-A9CF56102F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Anciennement salle audio A</t>
   </si>
   <si>
-    <t>TD I-206</t>
-  </si>
-  <si>
     <t>Anciennement  TD 2-1</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>Anciennement  salle D</t>
   </si>
   <si>
-    <t>TD I-214</t>
-  </si>
-  <si>
     <t>Anciennement salle  B</t>
   </si>
   <si>
@@ -107,9 +101,6 @@
     <t>Anciennement  salle F</t>
   </si>
   <si>
-    <t>TD I-104</t>
-  </si>
-  <si>
     <t>Anciennement  TD 1-1</t>
   </si>
   <si>
@@ -137,9 +128,6 @@
     <t>Anciennement  GRANDE Salle TD</t>
   </si>
   <si>
-    <t>TD I-110</t>
-  </si>
-  <si>
     <t>Anciennement salle  E</t>
   </si>
   <si>
@@ -264,6 +252,18 @@
   </si>
   <si>
     <t>VGA</t>
+  </si>
+  <si>
+    <t>Audio I-206</t>
+  </si>
+  <si>
+    <t>TP I-104</t>
+  </si>
+  <si>
+    <t>Mobile/TD I-110</t>
+  </si>
+  <si>
+    <t>Mobile/TD I-214</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -755,21 +755,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9B81BC-3126-4E49-8B2E-F3F80AF6BD83}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.85546875" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.88671875" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
-    <col min="6" max="6" width="49.28515625" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" customWidth="1"/>
+    <col min="6" max="6" width="49.33203125" customWidth="1"/>
+    <col min="7" max="7" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -783,16 +783,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -803,19 +803,19 @@
         <v>4</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -823,22 +823,22 @@
         <v>205</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -846,22 +846,22 @@
         <v>207</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="E4" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -869,22 +869,22 @@
         <v>208</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -892,18 +892,18 @@
         <v>209</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="E6" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -911,22 +911,22 @@
         <v>212</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="E7" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -934,18 +934,18 @@
         <v>211</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="E8" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -953,22 +953,22 @@
         <v>214</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="E9" s="9">
         <v>30</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -977,7 +977,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -985,22 +985,22 @@
         <v>102</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -1008,22 +1008,22 @@
         <v>104</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="E12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>57</v>
-      </c>
       <c r="G12" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -1031,22 +1031,22 @@
         <v>107</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -1054,22 +1054,22 @@
         <v>106</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -1077,22 +1077,22 @@
         <v>109</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -1100,22 +1100,22 @@
         <v>111</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -1123,22 +1123,22 @@
         <v>110</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="E17" s="9">
         <v>67</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1147,7 +1147,7 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>0</v>
       </c>
@@ -1155,22 +1155,22 @@
         <v>2</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>0</v>
       </c>
@@ -1178,22 +1178,22 @@
         <v>4</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>0</v>
       </c>
@@ -1201,22 +1201,22 @@
         <v>9</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>0</v>
       </c>
@@ -1224,22 +1224,22 @@
         <v>10</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
     </row>
   </sheetData>
